--- a/DataTables/Datas/demo.xlsx
+++ b/DataTables/Datas/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23490" windowHeight="12765" firstSheet="15" activeTab="24"/>
+    <workbookView windowHeight="17580" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="203">
   <si>
     <t>##var</t>
   </si>
@@ -886,6 +886,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -947,12 +953,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,7 +1209,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1233,16 +1233,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1260,7 +1260,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1272,7 +1272,7 @@
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1296,7 +1296,7 @@
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1320,7 +1320,7 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1333,7 +1333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,28 +1361,34 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1939,19 +1945,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="L1" t="s">
         <v>126</v>
       </c>
@@ -2067,34 +2073,34 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="14" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
@@ -2148,35 +2154,35 @@
       <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" t="s">
         <v>148</v>
       </c>
       <c r="L3" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
       <c r="P3" t="s">
         <v>148</v>
       </c>
       <c r="Q3" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
@@ -2194,11 +2200,11 @@
       <c r="S4" t="s">
         <v>149</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
@@ -2515,35 +2521,35 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="14" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="8" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="14" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -2598,11 +2604,11 @@
       <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" t="s">
         <v>151</v>
       </c>
@@ -2830,12 +2836,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2977,12 +2983,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -3093,11 +3099,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" t="s">
         <v>157</v>
       </c>
@@ -3170,17 +3176,17 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" spans="2:6">
-      <c r="B7" s="12">
+    <row r="7" s="14" customFormat="1" spans="2:6">
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="14">
         <v>1003</v>
       </c>
-      <c r="E7" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3201,17 +3207,17 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" spans="2:6">
-      <c r="B9" s="12">
+    <row r="9" s="14" customFormat="1" spans="2:6">
+      <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="14">
         <v>1004</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3244,29 +3250,29 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="2" t="s">
         <v>170</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
@@ -3297,7 +3303,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -3530,15 +3536,15 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3546,143 +3552,233 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
-        <v>176</v>
-      </c>
+      <c r="G1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="L1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>178</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>163</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>165</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>100</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>200</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>100</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5">
+    <row r="5" spans="3:6">
+      <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="J6">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="M6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6">
+    <row r="7" spans="3:6">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="I8">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L8" t="s">
         <v>165</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M8" t="s">
         <v>180</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N8" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
+  <mergeCells count="6">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4595,7 +4691,7 @@
       <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4612,7 +4708,7 @@
       <c r="D6" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4660,7 +4756,7 @@
       <c r="D9" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4782,7 +4878,7 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -5107,7 +5203,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:P15"/>
+      <selection activeCell="A1" sqref="A1:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5572,7 +5668,7 @@
       <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5607,7 +5703,7 @@
       <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5615,7 +5711,7 @@
       <c r="B7">
         <v>1003</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D7">
@@ -5642,7 +5738,7 @@
       <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5677,7 +5773,7 @@
       <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="20" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5712,7 +5808,7 @@
       <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="20" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5720,7 +5816,7 @@
       <c r="B10">
         <v>1006</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5789,17 +5885,17 @@
       <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="14" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -5941,7 +6037,7 @@
       <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L6" t="s">
@@ -5970,7 +6066,7 @@
       <c r="B7">
         <v>1003</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D7">
@@ -5994,7 +6090,7 @@
       <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="20" t="s">
         <v>48</v>
       </c>
       <c r="L7" t="s">
@@ -6047,7 +6143,7 @@
       <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="L8">
@@ -6103,7 +6199,7 @@
       <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="L9">
@@ -6197,12 +6293,12 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -6398,7 +6494,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="4"/>
@@ -6520,12 +6616,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -6639,27 +6735,27 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
